--- a/doc/AutoML-Framework-Overview.xlsx
+++ b/doc/AutoML-Framework-Overview.xlsx
@@ -5,17 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fraunhofer.sharepoint.com/sites/AutoQML-Quartalsbericht/Freigegebene Dokumente/General/AutoQML Framework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klau\Git-Repos\AutoQML\Whitepaper-Framework-Selection\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{8646275F-028D-49C4-80EA-9A730B066577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EE284CB-5290-404C-BCAB-3AF5434995F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96DAA6E-58B3-4B26-9572-0B556417AB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3420" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="199">
   <si>
     <t>Name</t>
   </si>
@@ -716,15 +714,12 @@
   <si>
     <t>Hyperopt</t>
   </si>
-  <si>
-    <t>.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,14 +735,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -757,7 +744,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -765,414 +752,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -1192,10 +789,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EDE1657E-04B2-4BE0-8212-49A174C87471}" name="Table3" displayName="Table3" ref="B1:R46" totalsRowShown="0">
   <autoFilter ref="B1:R46" xr:uid="{EDE1657E-04B2-4BE0-8212-49A174C87471}"/>
@@ -1205,8 +798,8 @@
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{29BC4279-6FD7-4793-8613-7B501E5142DD}" name="Name"/>
     <tableColumn id="2" xr3:uid="{A5AE50FA-35B8-4B66-9323-D0E0444A8B51}" name="Github Stars"/>
-    <tableColumn id="3" xr3:uid="{06F54AAE-369E-4350-8D7B-86458754666A}" name="Last Commit" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{91836122-10D3-4917-90EA-8BA455416BBA}" name="Last Release" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{06F54AAE-369E-4350-8D7B-86458754666A}" name="Last Commit" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{91836122-10D3-4917-90EA-8BA455416BBA}" name="Last Release" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{8774D5A1-BE53-4C65-A0CE-8382DDC4DAB6}" name="Nr. Contributors"/>
     <tableColumn id="6" xr3:uid="{6625AF04-24E8-4DCB-90F8-1AC41123B43D}" name="Language"/>
     <tableColumn id="19" xr3:uid="{2DE35BF0-8971-4269-82A3-73586D72D9FF}" name="License"/>
@@ -1220,32 +813,6 @@
     <tableColumn id="13" xr3:uid="{A015DC5E-6ADC-4599-94A1-971BA0256BA7}" name="Disadvantages"/>
     <tableColumn id="20" xr3:uid="{C4E47D7F-FF54-410B-BBF4-9151F17D7943}" name="Rating"/>
     <tableColumn id="21" xr3:uid="{AF06E1B1-8044-445A-A938-871C935C15F7}" name="Link" dataCellStyle="Link"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96270B65-885F-4CD6-B32A-9356397468E6}" name="Tabelle1" displayName="Tabelle1" ref="A1:Q13" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
-  <autoFilter ref="A1:Q13" xr:uid="{96270B65-885F-4CD6-B32A-9356397468E6}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{0F7B1251-3D00-4493-9B53-08E8121DC5A0}" name="Name" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{30BA334F-2F6D-4D99-9BE1-00A4D3562126}" name="Github Stars" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{826451D0-A62B-4386-B047-12962C4A12E4}" name="Last Commit" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{790F5453-0482-4C82-B58E-A6E0FB2DB7E4}" name="Last Release" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{2862F83F-AFA7-408A-A962-9CC2927F57A8}" name="Nr. Contributors" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{6AF046B7-AB07-4F8D-B75F-A5A6046E0B10}" name="Language" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{8998BF85-F68B-4795-BB17-6546CF4F8528}" name="License" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{CFC68E47-904F-4C42-9926-AE0F4B5C4D06}" name="Supported ML Libraries" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{21847374-CE05-4B3A-A0E0-D40C4709A61A}" name="Input Types" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{57536585-CB76-4FA9-BFEA-67F1DCE80D4D}" name="ML Problems" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{9ED77D71-9658-4281-84EA-84A19038B3A8}" name="Search Space" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{2345B69D-259C-4C34-A38E-AD5CA06D2B0E}" name="Optimizer" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{7929AEFA-2F81-49FF-92F0-4B5F1F5251A2}" name="Abstraction" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{E57D5FBC-43CF-427E-851E-3DC76CE510A6}" name="Advantages" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{E4CA9340-031A-435B-ADD1-2B88623520EA}" name="Disadvantages" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{AF79F0F5-11F8-44ED-A5CB-B6F1624270CC}" name="Rating" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{927E24F5-64BD-406E-8912-4ABECF414EE8}" name="Link" dataDxfId="0" dataCellStyle="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1551,31 +1118,31 @@
   <dimension ref="B1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="47.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1015625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.68359375" customWidth="1"/>
+    <col min="9" max="9" width="23.3125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.3125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.1015625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.33203125" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.68359375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.3125" customWidth="1"/>
+    <col min="17" max="17" width="8.5234375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1195,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>174</v>
       </c>
@@ -1657,7 +1224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>175</v>
       </c>
@@ -1686,7 +1253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>176</v>
       </c>
@@ -1718,7 +1285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>173</v>
       </c>
@@ -1750,7 +1317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>177</v>
       </c>
@@ -1782,7 +1349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>178</v>
       </c>
@@ -1814,7 +1381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>172</v>
       </c>
@@ -1846,7 +1413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>171</v>
       </c>
@@ -1878,7 +1445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>170</v>
       </c>
@@ -1907,7 +1474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>169</v>
       </c>
@@ -1936,7 +1503,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>168</v>
       </c>
@@ -1968,7 +1535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>167</v>
       </c>
@@ -2000,7 +1567,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>179</v>
       </c>
@@ -2032,7 +1599,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>180</v>
       </c>
@@ -2061,7 +1628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>181</v>
       </c>
@@ -2090,7 +1657,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>182</v>
       </c>
@@ -2122,7 +1689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>166</v>
       </c>
@@ -2154,7 +1721,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>183</v>
       </c>
@@ -2186,7 +1753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
         <v>165</v>
       </c>
@@ -2218,7 +1785,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>184</v>
       </c>
@@ -2250,7 +1817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
         <v>185</v>
       </c>
@@ -2294,7 +1861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
         <v>186</v>
       </c>
@@ -2344,7 +1911,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>164</v>
       </c>
@@ -2394,7 +1961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
         <v>163</v>
       </c>
@@ -2444,7 +2011,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>187</v>
       </c>
@@ -2494,7 +2061,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
         <v>188</v>
       </c>
@@ -2544,7 +2111,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
         <v>189</v>
       </c>
@@ -2594,7 +2161,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
         <v>190</v>
       </c>
@@ -2644,7 +2211,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
         <v>191</v>
       </c>
@@ -2694,7 +2261,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
         <v>192</v>
       </c>
@@ -2744,7 +2311,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
         <v>193</v>
       </c>
@@ -2794,7 +2361,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>194</v>
       </c>
@@ -2844,7 +2411,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
         <v>195</v>
       </c>
@@ -2891,7 +2458,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="2:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>196</v>
       </c>
@@ -2941,7 +2508,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="2:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
         <v>197</v>
       </c>
@@ -2991,7 +2558,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>198</v>
       </c>
@@ -3041,7 +2608,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="2:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
         <v>162</v>
       </c>
@@ -3091,7 +2658,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="2:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
         <v>160</v>
       </c>
@@ -3141,7 +2708,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
         <v>161</v>
       </c>
@@ -3191,7 +2758,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
         <v>159</v>
       </c>
@@ -3241,7 +2808,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="2:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" t="s">
         <v>158</v>
       </c>
@@ -3294,7 +2861,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="2:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
         <v>157</v>
       </c>
@@ -3347,7 +2914,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="2:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:18" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>121</v>
       </c>
@@ -3400,7 +2967,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>156</v>
       </c>
@@ -3450,7 +3017,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="2:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:18" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
         <v>155</v>
       </c>
@@ -3556,1309 +3123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B27AE06-F812-4A53-A4BA-B8416F46B28B}">
-  <dimension ref="A1:Q13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2">
-        <v>572</v>
-      </c>
-      <c r="C2" s="1">
-        <v>42991</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3">
-        <v>1500</v>
-      </c>
-      <c r="C3" s="1">
-        <v>43780</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43391</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4">
-        <v>5900</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44777</v>
-      </c>
-      <c r="D4" s="1">
-        <v>44776</v>
-      </c>
-      <c r="E4">
-        <v>160</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5">
-        <v>1700</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44763</v>
-      </c>
-      <c r="D5" s="1">
-        <v>44760</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6">
-        <v>1700</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44763</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44760</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7">
-        <v>8700</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44771</v>
-      </c>
-      <c r="D7" s="1">
-        <v>44202</v>
-      </c>
-      <c r="E7">
-        <v>73</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8">
-        <v>6400</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44776</v>
-      </c>
-      <c r="D8" s="1">
-        <v>44610</v>
-      </c>
-      <c r="E8">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9">
-        <v>6300</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44529</v>
-      </c>
-      <c r="D9" s="1">
-        <v>44517</v>
-      </c>
-      <c r="E9">
-        <v>90</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" t="s">
-        <v>116</v>
-      </c>
-      <c r="M9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" t="s">
-        <v>117</v>
-      </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10">
-        <v>21400</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44777</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44721</v>
-      </c>
-      <c r="E10">
-        <v>709</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="M10" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="P10">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11">
-        <v>4700</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44776</v>
-      </c>
-      <c r="D11" s="1">
-        <v>44771</v>
-      </c>
-      <c r="E11">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
-      </c>
-      <c r="O11" t="s">
-        <v>149</v>
-      </c>
-      <c r="P11">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12">
-        <v>6700</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44776</v>
-      </c>
-      <c r="D12" s="1">
-        <v>44725</v>
-      </c>
-      <c r="E12">
-        <v>175</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="P12">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13">
-        <v>2000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>44776</v>
-      </c>
-      <c r="D13" s="1">
-        <v>44773</v>
-      </c>
-      <c r="E13">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="M13" t="s">
-        <v>92</v>
-      </c>
-      <c r="O13" t="s">
-        <v>149</v>
-      </c>
-      <c r="P13">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Q13" r:id="rId1" xr:uid="{55237CDF-03E3-445E-A9F7-6F9A2C2F8C85}"/>
-    <hyperlink ref="Q12" r:id="rId2" xr:uid="{6B242DCA-22BE-4391-A89A-A3EA2E16D2BB}"/>
-    <hyperlink ref="Q11" r:id="rId3" xr:uid="{8B502627-BA4C-4DF5-8AE0-99625E4BF9D5}"/>
-    <hyperlink ref="Q10" r:id="rId4" xr:uid="{13DACA93-1757-465A-893C-1AD3A66DD474}"/>
-    <hyperlink ref="Q9" r:id="rId5" xr:uid="{2A6488EB-AFCD-401F-A960-0F89C13352D6}"/>
-    <hyperlink ref="Q7" r:id="rId6" xr:uid="{CD1E5154-7B97-416A-93B8-8B84AA3C5E21}"/>
-    <hyperlink ref="Q8" r:id="rId7" xr:uid="{8B0294D1-AE5B-4F0D-9ECA-A9CEAEB77262}"/>
-    <hyperlink ref="Q6" r:id="rId8" xr:uid="{E8DA7033-3975-4A8A-B063-C75D7248EF9C}"/>
-    <hyperlink ref="Q5" r:id="rId9" xr:uid="{CCFE2D8D-C72A-45B1-8C91-000545114FDE}"/>
-    <hyperlink ref="Q4" r:id="rId10" xr:uid="{ED6B7D1D-725C-4878-93FC-56299B752D69}"/>
-    <hyperlink ref="Q3" r:id="rId11" xr:uid="{5402BDC8-1F85-4242-9CC2-789CFA8740F6}"/>
-    <hyperlink ref="Q2" r:id="rId12" xr:uid="{8D1CA4CB-2F43-4C3C-8415-90A77FEF3740}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId13"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22ECBB19-110E-412F-A9C3-08EF7A0B6049}">
-  <dimension ref="A1:Q12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2">
-        <v>572</v>
-      </c>
-      <c r="C2" s="1">
-        <v>42991</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K2" t="s">
-        <v>199</v>
-      </c>
-      <c r="L2" t="s">
-        <v>199</v>
-      </c>
-      <c r="M2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3">
-        <v>1500</v>
-      </c>
-      <c r="C3" s="1">
-        <v>43780</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43391</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>199</v>
-      </c>
-      <c r="I3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K3" t="s">
-        <v>199</v>
-      </c>
-      <c r="L3" t="s">
-        <v>199</v>
-      </c>
-      <c r="M3" t="s">
-        <v>199</v>
-      </c>
-      <c r="N3" t="s">
-        <v>199</v>
-      </c>
-      <c r="O3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4">
-        <v>5900</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44777</v>
-      </c>
-      <c r="D4" s="1">
-        <v>44776</v>
-      </c>
-      <c r="E4">
-        <v>160</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>199</v>
-      </c>
-      <c r="I4" t="s">
-        <v>199</v>
-      </c>
-      <c r="J4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K4" t="s">
-        <v>199</v>
-      </c>
-      <c r="L4" t="s">
-        <v>199</v>
-      </c>
-      <c r="M4" t="s">
-        <v>199</v>
-      </c>
-      <c r="N4" t="s">
-        <v>199</v>
-      </c>
-      <c r="O4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5">
-        <v>1700</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44763</v>
-      </c>
-      <c r="D5" s="1">
-        <v>44760</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6">
-        <v>8700</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44771</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44202</v>
-      </c>
-      <c r="E6">
-        <v>73</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" t="s">
-        <v>199</v>
-      </c>
-      <c r="O6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7">
-        <v>6400</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44776</v>
-      </c>
-      <c r="D7" s="1">
-        <v>44610</v>
-      </c>
-      <c r="E7">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" t="s">
-        <v>199</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8">
-        <v>6300</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44529</v>
-      </c>
-      <c r="D8" s="1">
-        <v>44517</v>
-      </c>
-      <c r="E8">
-        <v>90</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" t="s">
-        <v>199</v>
-      </c>
-      <c r="O8" t="s">
-        <v>117</v>
-      </c>
-      <c r="P8">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9">
-        <v>21400</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44777</v>
-      </c>
-      <c r="D9" s="1">
-        <v>44721</v>
-      </c>
-      <c r="E9">
-        <v>709</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" t="s">
-        <v>135</v>
-      </c>
-      <c r="M9" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" t="s">
-        <v>136</v>
-      </c>
-      <c r="O9" t="s">
-        <v>137</v>
-      </c>
-      <c r="P9">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10">
-        <v>4700</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44776</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44771</v>
-      </c>
-      <c r="E10">
-        <v>81</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10" t="s">
-        <v>148</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" t="s">
-        <v>199</v>
-      </c>
-      <c r="O10" t="s">
-        <v>149</v>
-      </c>
-      <c r="P10">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11">
-        <v>6700</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44776</v>
-      </c>
-      <c r="D11" s="1">
-        <v>44725</v>
-      </c>
-      <c r="E11">
-        <v>175</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M11" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" t="s">
-        <v>143</v>
-      </c>
-      <c r="O11" t="s">
-        <v>144</v>
-      </c>
-      <c r="P11">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12">
-        <v>2000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44776</v>
-      </c>
-      <c r="D12" s="1">
-        <v>44773</v>
-      </c>
-      <c r="E12">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>151</v>
-      </c>
-      <c r="I12" t="s">
-        <v>152</v>
-      </c>
-      <c r="J12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" t="s">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12" t="s">
-        <v>199</v>
-      </c>
-      <c r="O12" t="s">
-        <v>149</v>
-      </c>
-      <c r="P12">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EEC6A9F56DB8DE4E994ECFB7CFB7F060" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="08aac44a109dce233662c9a40c8dcde0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e711f135-e4e6-4e79-b81d-a0615d74429e" xmlns:ns3="f96729ad-c324-4e99-8ea2-5eb7509c173e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6bdc0594e045532a4a72c625bee166ba" ns2:_="" ns3:_="">
     <xsd:import namespace="e711f135-e4e6-4e79-b81d-a0615d74429e"/>
@@ -5029,6 +3294,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5039,23 +3310,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E459183-1749-42F3-A8FB-B1EC3187103C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f96729ad-c324-4e99-8ea2-5eb7509c173e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e711f135-e4e6-4e79-b81d-a0615d74429e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C6296D4-B7AD-43DB-8500-05633E7474D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5074,6 +3328,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E459183-1749-42F3-A8FB-B1EC3187103C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f96729ad-c324-4e99-8ea2-5eb7509c173e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e711f135-e4e6-4e79-b81d-a0615d74429e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{528493DE-6C9B-4B58-82AE-7977433B04E6}">
   <ds:schemaRefs>
